--- a/test/output/剩餘能量-時間比較.xlsx
+++ b/test/output/剩餘能量-時間比較.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE46941C-BA1D-4824-BE55-DD1708FD5450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CEFD2A-CD2F-497C-9E34-3F0B49F6E211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1069,12 +1069,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2283,12 +2278,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3498,12 +3488,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4733,12 +4718,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5906,12 +5886,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6920,12 +6895,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -11077,7 +11047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AC53" sqref="AC53"/>
     </sheetView>
   </sheetViews>

--- a/test/output/剩餘能量-時間比較.xlsx
+++ b/test/output/剩餘能量-時間比較.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CEFD2A-CD2F-497C-9E34-3F0B49F6E211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769A8E1A-B34F-4EBB-96E7-BF4ABF3F31AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,6 @@
   </si>
   <si>
     <t>NRCA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLEACH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,6 +66,14 @@
   </si>
   <si>
     <t>REBM</t>
+  </si>
+  <si>
+    <t>ER-ACS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal LEACH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OLEACH</c:v>
+                  <c:v>Optimal LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -798,7 +798,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1835,7 +1835,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OLEACH</c:v>
+                  <c:v>Optimal LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2010,7 +2010,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3048,7 +3048,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OLEACH</c:v>
+                  <c:v>Optimal LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3223,7 +3223,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4260,7 +4260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OLEACH</c:v>
+                  <c:v>Optimal LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4435,7 +4435,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5458,7 +5458,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OLEACH</c:v>
+                  <c:v>Optimal LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5633,7 +5633,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6209,7 +6209,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11047,8 +11047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC53" sqref="AC53"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11058,7 +11058,7 @@
   <sheetData>
     <row r="1" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2">
         <v>2000</v>
@@ -11168,7 +11168,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -11283,7 +11283,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>6208.59</v>
@@ -11294,7 +11294,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>6391.58</v>
@@ -11389,7 +11389,7 @@
     </row>
     <row r="7" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <v>2000</v>
@@ -11499,7 +11499,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -11617,7 +11617,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>6209.13</v>
@@ -11628,7 +11628,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>6384.77</v>
@@ -11720,7 +11720,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>6427.99</v>
@@ -11731,7 +11731,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>6414.07</v>
@@ -11808,7 +11808,7 @@
     </row>
     <row r="15" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
         <v>2000</v>
@@ -11918,7 +11918,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -12030,7 +12030,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>6216.49</v>
@@ -12041,7 +12041,7 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>6389.86</v>
@@ -12130,7 +12130,7 @@
     </row>
     <row r="21" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2">
         <v>2000</v>
@@ -12361,7 +12361,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>6244.52</v>
@@ -12372,7 +12372,7 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>6399.22</v>
@@ -12479,104 +12479,122 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
         <v>6</v>
       </c>
-      <c r="C28" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D28" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E28" s="2">
-        <v>6000</v>
-      </c>
       <c r="F28" s="2">
-        <v>8000</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="H28" s="2">
-        <v>12000</v>
+        <v>12</v>
       </c>
       <c r="I28" s="2">
-        <v>14000</v>
+        <v>14</v>
       </c>
       <c r="J28" s="2">
-        <v>16000</v>
+        <v>16</v>
       </c>
       <c r="K28" s="2">
-        <v>18000</v>
+        <v>18</v>
       </c>
       <c r="L28" s="2">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="M28" s="2">
-        <v>22000</v>
+        <v>22</v>
       </c>
       <c r="N28" s="2">
-        <v>24000</v>
+        <v>24</v>
       </c>
       <c r="O28" s="2">
-        <v>26000</v>
+        <v>26</v>
       </c>
       <c r="P28" s="2">
-        <v>28000</v>
+        <v>28</v>
       </c>
       <c r="Q28" s="2">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="R28" s="2">
-        <v>32000</v>
+        <v>32</v>
       </c>
       <c r="S28" s="2">
-        <v>34000</v>
+        <v>34</v>
       </c>
       <c r="T28" s="2">
-        <v>36000</v>
+        <v>36</v>
       </c>
       <c r="U28" s="2">
-        <v>38000</v>
+        <v>38</v>
       </c>
       <c r="V28" s="2">
-        <v>40000</v>
+        <v>40</v>
       </c>
       <c r="W28" s="2">
-        <v>42000</v>
+        <v>42</v>
       </c>
       <c r="X28" s="2">
-        <v>44000</v>
+        <v>44</v>
       </c>
       <c r="Y28" s="2">
-        <v>46000</v>
+        <v>46</v>
       </c>
       <c r="Z28" s="2">
-        <v>48000</v>
+        <v>48</v>
       </c>
       <c r="AA28" s="2">
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="AB28" s="2">
-        <v>52000</v>
+        <v>52</v>
       </c>
       <c r="AC28" s="2">
-        <v>54000</v>
+        <v>54</v>
       </c>
       <c r="AD28" s="2">
-        <v>56000</v>
+        <v>56</v>
       </c>
       <c r="AE28" s="2">
-        <v>58000</v>
+        <v>58</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>60</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>64</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>66</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>68</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
@@ -12660,7 +12678,7 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>6126.84</v>
@@ -12671,7 +12689,7 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>6366.16</v>
@@ -12748,12 +12766,12 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/test/output/剩餘能量-時間比較.xlsx
+++ b/test/output/剩餘能量-時間比較.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE46941C-BA1D-4824-BE55-DD1708FD5450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769A8E1A-B34F-4EBB-96E7-BF4ABF3F31AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,14 +27,6 @@
   </si>
   <si>
     <t>NRCA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLEACH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,6 +66,14 @@
   </si>
   <si>
     <t>REBM</t>
+  </si>
+  <si>
+    <t>ER-ACS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal LEACH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OLEACH</c:v>
+                  <c:v>Optimal LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -798,7 +798,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1069,12 +1069,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1840,7 +1835,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OLEACH</c:v>
+                  <c:v>Optimal LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2015,7 +2010,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2283,12 +2278,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3058,7 +3048,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OLEACH</c:v>
+                  <c:v>Optimal LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3233,7 +3223,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3498,12 +3488,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4275,7 +4260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OLEACH</c:v>
+                  <c:v>Optimal LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4450,7 +4435,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4733,12 +4718,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5478,7 +5458,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OLEACH</c:v>
+                  <c:v>Optimal LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5653,7 +5633,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5906,12 +5886,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6234,7 +6209,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6920,12 +6895,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -11077,8 +11047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC53" sqref="AC53"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11088,7 +11058,7 @@
   <sheetData>
     <row r="1" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2">
         <v>2000</v>
@@ -11198,7 +11168,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -11313,7 +11283,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>6208.59</v>
@@ -11324,7 +11294,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>6391.58</v>
@@ -11419,7 +11389,7 @@
     </row>
     <row r="7" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <v>2000</v>
@@ -11529,7 +11499,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -11647,7 +11617,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>6209.13</v>
@@ -11658,7 +11628,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>6384.77</v>
@@ -11750,7 +11720,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>6427.99</v>
@@ -11761,7 +11731,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>6414.07</v>
@@ -11838,7 +11808,7 @@
     </row>
     <row r="15" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
         <v>2000</v>
@@ -11948,7 +11918,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -12060,7 +12030,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>6216.49</v>
@@ -12071,7 +12041,7 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>6389.86</v>
@@ -12160,7 +12130,7 @@
     </row>
     <row r="21" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2">
         <v>2000</v>
@@ -12391,7 +12361,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>6244.52</v>
@@ -12402,7 +12372,7 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>6399.22</v>
@@ -12509,104 +12479,122 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
         <v>6</v>
       </c>
-      <c r="C28" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D28" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E28" s="2">
-        <v>6000</v>
-      </c>
       <c r="F28" s="2">
-        <v>8000</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="H28" s="2">
-        <v>12000</v>
+        <v>12</v>
       </c>
       <c r="I28" s="2">
-        <v>14000</v>
+        <v>14</v>
       </c>
       <c r="J28" s="2">
-        <v>16000</v>
+        <v>16</v>
       </c>
       <c r="K28" s="2">
-        <v>18000</v>
+        <v>18</v>
       </c>
       <c r="L28" s="2">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="M28" s="2">
-        <v>22000</v>
+        <v>22</v>
       </c>
       <c r="N28" s="2">
-        <v>24000</v>
+        <v>24</v>
       </c>
       <c r="O28" s="2">
-        <v>26000</v>
+        <v>26</v>
       </c>
       <c r="P28" s="2">
-        <v>28000</v>
+        <v>28</v>
       </c>
       <c r="Q28" s="2">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="R28" s="2">
-        <v>32000</v>
+        <v>32</v>
       </c>
       <c r="S28" s="2">
-        <v>34000</v>
+        <v>34</v>
       </c>
       <c r="T28" s="2">
-        <v>36000</v>
+        <v>36</v>
       </c>
       <c r="U28" s="2">
-        <v>38000</v>
+        <v>38</v>
       </c>
       <c r="V28" s="2">
-        <v>40000</v>
+        <v>40</v>
       </c>
       <c r="W28" s="2">
-        <v>42000</v>
+        <v>42</v>
       </c>
       <c r="X28" s="2">
-        <v>44000</v>
+        <v>44</v>
       </c>
       <c r="Y28" s="2">
-        <v>46000</v>
+        <v>46</v>
       </c>
       <c r="Z28" s="2">
-        <v>48000</v>
+        <v>48</v>
       </c>
       <c r="AA28" s="2">
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="AB28" s="2">
-        <v>52000</v>
+        <v>52</v>
       </c>
       <c r="AC28" s="2">
-        <v>54000</v>
+        <v>54</v>
       </c>
       <c r="AD28" s="2">
-        <v>56000</v>
+        <v>56</v>
       </c>
       <c r="AE28" s="2">
-        <v>58000</v>
+        <v>58</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>60</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>64</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>66</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>68</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
@@ -12690,7 +12678,7 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>6126.84</v>
@@ -12701,7 +12689,7 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>6366.16</v>
@@ -12778,12 +12766,12 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
